--- a/templates/notif_in.xlsx
+++ b/templates/notif_in.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs007\Desktop\CRM-Avi\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="19020" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="19020" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="134">
   <si>
     <t xml:space="preserve"> г.</t>
-  </si>
-  <si>
-    <t>Приложение № 19</t>
   </si>
   <si>
     <t>или</t>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>Ы</t>
+  </si>
+  <si>
+    <t>Приложение № 19</t>
   </si>
 </sst>
 </file>
@@ -1077,6 +1077,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1112,6 +1129,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1293,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:DY66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:DY49"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="DY1" sqref="DY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1304,12 +1338,12 @@
   <sheetData>
     <row r="1" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="DY1" s="3" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:129" s="6" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="DY2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:129" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,7 +1351,7 @@
     </row>
     <row r="4" spans="1:129" s="2" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="DY4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:129" s="8" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,7 +1359,7 @@
     </row>
     <row r="6" spans="1:129" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1458,7 +1492,7 @@
     </row>
     <row r="7" spans="1:129" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1591,7 +1625,7 @@
     </row>
     <row r="8" spans="1:129" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1724,7 +1758,7 @@
     </row>
     <row r="9" spans="1:129" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1969,7 +2003,7 @@
     </row>
     <row r="11" spans="1:129" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -2102,7 +2136,7 @@
     </row>
     <row r="12" spans="1:129" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
@@ -2235,7 +2269,7 @@
     </row>
     <row r="13" spans="1:129" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -2369,28 +2403,28 @@
     <row r="14" spans="1:129" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:129" s="5" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:129" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="65"/>
       <c r="C17" s="66"/>
       <c r="D17" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="66"/>
       <c r="G17" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="66"/>
       <c r="J17" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="65"/>
       <c r="L17" s="66"/>
@@ -2398,32 +2432,32 @@
       <c r="N17" s="65"/>
       <c r="O17" s="66"/>
       <c r="P17" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="65"/>
       <c r="R17" s="66"/>
       <c r="S17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" s="65"/>
       <c r="U17" s="66"/>
       <c r="V17" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W17" s="65"/>
       <c r="X17" s="66"/>
       <c r="Y17" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z17" s="65"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC17" s="65"/>
       <c r="AD17" s="66"/>
       <c r="AE17" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF17" s="65"/>
       <c r="AG17" s="66"/>
@@ -2431,7 +2465,7 @@
       <c r="AI17" s="65"/>
       <c r="AJ17" s="66"/>
       <c r="AK17" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL17" s="65"/>
       <c r="AM17" s="66"/>
@@ -2439,32 +2473,32 @@
       <c r="AO17" s="65"/>
       <c r="AP17" s="66"/>
       <c r="AQ17" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR17" s="65"/>
       <c r="AS17" s="66"/>
       <c r="AT17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU17" s="65"/>
       <c r="AV17" s="66"/>
       <c r="AW17" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX17" s="65"/>
       <c r="AY17" s="66"/>
       <c r="AZ17" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BA17" s="65"/>
       <c r="BB17" s="66"/>
       <c r="BC17" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BD17" s="65"/>
       <c r="BE17" s="66"/>
       <c r="BF17" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BG17" s="65"/>
       <c r="BH17" s="66"/>
@@ -2472,12 +2506,12 @@
       <c r="BJ17" s="65"/>
       <c r="BK17" s="66"/>
       <c r="BL17" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BM17" s="65"/>
       <c r="BN17" s="66"/>
       <c r="BO17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP17" s="65"/>
       <c r="BQ17" s="66"/>
@@ -2485,82 +2519,82 @@
       <c r="BS17" s="65"/>
       <c r="BT17" s="66"/>
       <c r="BU17" s="64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BV17" s="65"/>
       <c r="BW17" s="66"/>
       <c r="BX17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BY17" s="65"/>
       <c r="BZ17" s="66"/>
       <c r="CA17" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB17" s="65"/>
       <c r="CC17" s="66"/>
       <c r="CD17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CE17" s="65"/>
       <c r="CF17" s="66"/>
       <c r="CG17" s="64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CH17" s="65"/>
       <c r="CI17" s="66"/>
       <c r="CJ17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CK17" s="65"/>
       <c r="CL17" s="66"/>
       <c r="CM17" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CN17" s="65"/>
       <c r="CO17" s="66"/>
       <c r="CP17" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CQ17" s="65"/>
       <c r="CR17" s="66"/>
       <c r="CS17" s="64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CT17" s="65"/>
       <c r="CU17" s="66"/>
       <c r="CV17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CW17" s="65"/>
       <c r="CX17" s="66"/>
       <c r="CY17" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CZ17" s="65"/>
       <c r="DA17" s="66"/>
       <c r="DB17" s="64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DC17" s="65"/>
       <c r="DD17" s="66"/>
       <c r="DE17" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="DF17" s="65"/>
       <c r="DG17" s="66"/>
       <c r="DH17" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="DI17" s="65"/>
       <c r="DJ17" s="66"/>
       <c r="DK17" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DL17" s="65"/>
       <c r="DM17" s="66"/>
       <c r="DN17" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="DO17" s="65"/>
       <c r="DP17" s="66"/>
@@ -2568,19 +2602,19 @@
       <c r="DR17" s="65"/>
       <c r="DS17" s="66"/>
       <c r="DT17" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DU17" s="65"/>
       <c r="DV17" s="66"/>
       <c r="DW17" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DX17" s="65"/>
       <c r="DY17" s="66"/>
     </row>
     <row r="18" spans="1:129" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -2713,7 +2747,7 @@
     </row>
     <row r="19" spans="1:129" s="10" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -2764,7 +2798,7 @@
       <c r="AV19" s="67"/>
       <c r="AW19" s="67"/>
       <c r="AX19" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY19" s="68"/>
       <c r="AZ19" s="68"/>
@@ -2784,34 +2818,34 @@
       <c r="BN19" s="68"/>
       <c r="BO19" s="69"/>
       <c r="BP19" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ19" s="71"/>
       <c r="BR19" s="72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="73"/>
       <c r="BT19" s="73"/>
       <c r="BU19" s="73"/>
       <c r="BV19" s="73"/>
       <c r="BW19" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BX19" s="71"/>
       <c r="BY19" s="76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BZ19" s="77"/>
     </row>
     <row r="20" spans="1:129" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:129" s="26" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
       <c r="E21" s="74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
@@ -2860,7 +2894,7 @@
       <c r="AZ21" s="50"/>
       <c r="BA21" s="28"/>
       <c r="BB21" s="78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BC21" s="78"/>
       <c r="BD21" s="78"/>
@@ -3073,7 +3107,7 @@
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
       <c r="E23" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
@@ -3122,7 +3156,7 @@
       <c r="AZ23" s="50"/>
       <c r="BA23" s="28"/>
       <c r="BB23" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC23" s="75"/>
       <c r="BD23" s="75"/>
@@ -3335,7 +3369,7 @@
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="E25" s="74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
@@ -3384,7 +3418,7 @@
       <c r="AZ25" s="50"/>
       <c r="BA25" s="28"/>
       <c r="BB25" s="75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC25" s="75"/>
       <c r="BD25" s="75"/>
@@ -3597,7 +3631,7 @@
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
       <c r="E27" s="75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
@@ -3646,7 +3680,7 @@
       <c r="AZ27" s="50"/>
       <c r="BA27" s="28"/>
       <c r="BB27" s="75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" s="75"/>
       <c r="BD27" s="75"/>
@@ -3727,7 +3761,7 @@
     <row r="28" spans="1:129" s="26" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:129" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="79"/>
       <c r="C29" s="79"/>
@@ -3860,27 +3894,27 @@
     </row>
     <row r="30" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
       <c r="D30" s="48" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
       <c r="G30" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" s="49"/>
       <c r="I30" s="50"/>
       <c r="J30" s="48" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="K30" s="49"/>
       <c r="L30" s="50"/>
       <c r="M30" s="48" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="N30" s="49"/>
       <c r="O30" s="50"/>
@@ -3894,37 +3928,37 @@
       <c r="W30" s="49"/>
       <c r="X30" s="50"/>
       <c r="Y30" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z30" s="49"/>
       <c r="AA30" s="50"/>
       <c r="AB30" s="48" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AC30" s="49"/>
       <c r="AD30" s="50"/>
       <c r="AE30" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF30" s="49"/>
       <c r="AG30" s="50"/>
       <c r="AH30" s="48" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AI30" s="49"/>
       <c r="AJ30" s="50"/>
       <c r="AK30" s="48" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="AL30" s="49"/>
       <c r="AM30" s="50"/>
       <c r="AN30" s="48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO30" s="49"/>
       <c r="AP30" s="50"/>
       <c r="AQ30" s="48" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="AR30" s="49"/>
       <c r="AS30" s="50"/>
@@ -4015,47 +4049,47 @@
     </row>
     <row r="31" spans="1:129" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
       <c r="G32" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H32" s="49"/>
       <c r="I32" s="50"/>
       <c r="J32" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="50"/>
       <c r="M32" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32" s="49"/>
       <c r="O32" s="50"/>
       <c r="P32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q32" s="49"/>
       <c r="R32" s="50"/>
       <c r="S32" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T32" s="49"/>
       <c r="U32" s="50"/>
       <c r="V32" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W32" s="49"/>
       <c r="X32" s="50"/>
@@ -4063,7 +4097,7 @@
       <c r="Z32" s="49"/>
       <c r="AA32" s="50"/>
       <c r="AB32" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC32" s="49"/>
       <c r="AD32" s="50"/>
@@ -4071,62 +4105,62 @@
       <c r="AF32" s="49"/>
       <c r="AG32" s="50"/>
       <c r="AH32" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI32" s="49"/>
       <c r="AJ32" s="50"/>
       <c r="AK32" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL32" s="49"/>
       <c r="AM32" s="50"/>
       <c r="AN32" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO32" s="49"/>
       <c r="AP32" s="50"/>
       <c r="AQ32" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AR32" s="49"/>
       <c r="AS32" s="50"/>
       <c r="AT32" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU32" s="49"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX32" s="49"/>
       <c r="AY32" s="50"/>
       <c r="AZ32" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BA32" s="49"/>
       <c r="BB32" s="50"/>
       <c r="BC32" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BD32" s="49"/>
       <c r="BE32" s="50"/>
       <c r="BF32" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BG32" s="49"/>
       <c r="BH32" s="50"/>
       <c r="BI32" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BJ32" s="49"/>
       <c r="BK32" s="50"/>
       <c r="BL32" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BM32" s="49"/>
       <c r="BN32" s="50"/>
       <c r="BO32" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BP32" s="49"/>
       <c r="BQ32" s="50"/>
@@ -4134,82 +4168,82 @@
       <c r="BS32" s="49"/>
       <c r="BT32" s="50"/>
       <c r="BU32" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BV32" s="49"/>
       <c r="BW32" s="50"/>
       <c r="BX32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BY32" s="49"/>
       <c r="BZ32" s="50"/>
       <c r="CA32" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CB32" s="49"/>
       <c r="CC32" s="50"/>
       <c r="CD32" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CE32" s="49"/>
       <c r="CF32" s="50"/>
       <c r="CG32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CH32" s="49"/>
       <c r="CI32" s="50"/>
       <c r="CJ32" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CK32" s="49"/>
       <c r="CL32" s="50"/>
       <c r="CM32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="CN32" s="49"/>
       <c r="CO32" s="50"/>
       <c r="CP32" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="CQ32" s="49"/>
       <c r="CR32" s="50"/>
       <c r="CS32" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CT32" s="49"/>
       <c r="CU32" s="50"/>
       <c r="CV32" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CW32" s="49"/>
       <c r="CX32" s="50"/>
       <c r="CY32" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CZ32" s="49"/>
       <c r="DA32" s="50"/>
       <c r="DB32" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="DC32" s="49"/>
       <c r="DD32" s="50"/>
       <c r="DE32" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DF32" s="49"/>
       <c r="DG32" s="50"/>
       <c r="DH32" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="DI32" s="49"/>
       <c r="DJ32" s="50"/>
       <c r="DK32" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DL32" s="49"/>
       <c r="DM32" s="50"/>
       <c r="DN32" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DO32" s="49"/>
       <c r="DP32" s="50"/>
@@ -4225,7 +4259,7 @@
     </row>
     <row r="33" spans="1:129" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -4358,72 +4392,72 @@
     </row>
     <row r="34" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
       <c r="G34" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="49"/>
       <c r="I34" s="50"/>
       <c r="J34" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K34" s="49"/>
       <c r="L34" s="50"/>
       <c r="M34" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N34" s="49"/>
       <c r="O34" s="50"/>
       <c r="P34" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q34" s="49"/>
       <c r="R34" s="50"/>
       <c r="S34" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T34" s="49"/>
       <c r="U34" s="50"/>
       <c r="V34" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W34" s="49"/>
       <c r="X34" s="50"/>
       <c r="Y34" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z34" s="49"/>
       <c r="AA34" s="50"/>
       <c r="AB34" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC34" s="49"/>
       <c r="AD34" s="50"/>
       <c r="AE34" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF34" s="49"/>
       <c r="AG34" s="50"/>
       <c r="AH34" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI34" s="49"/>
       <c r="AJ34" s="50"/>
       <c r="AK34" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL34" s="49"/>
       <c r="AM34" s="50"/>
       <c r="AN34" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO34" s="49"/>
       <c r="AP34" s="50"/>
@@ -4431,7 +4465,7 @@
       <c r="AR34" s="49"/>
       <c r="AS34" s="50"/>
       <c r="AT34" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU34" s="49"/>
       <c r="AV34" s="50"/>
@@ -4519,7 +4553,7 @@
     </row>
     <row r="35" spans="1:129" s="33" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -4652,27 +4686,27 @@
     </row>
     <row r="36" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
       <c r="D36" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" s="49"/>
       <c r="F36" s="50"/>
       <c r="G36" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="49"/>
       <c r="I36" s="50"/>
       <c r="J36" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K36" s="49"/>
       <c r="L36" s="50"/>
       <c r="M36" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="50"/>
@@ -4680,67 +4714,67 @@
       <c r="Q36" s="49"/>
       <c r="R36" s="50"/>
       <c r="S36" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T36" s="49"/>
       <c r="U36" s="50"/>
       <c r="V36" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W36" s="49"/>
       <c r="X36" s="50"/>
       <c r="Y36" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z36" s="49"/>
       <c r="AA36" s="50"/>
       <c r="AB36" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC36" s="49"/>
       <c r="AD36" s="50"/>
       <c r="AE36" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF36" s="49"/>
       <c r="AG36" s="50"/>
       <c r="AH36" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI36" s="49"/>
       <c r="AJ36" s="50"/>
       <c r="AK36" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL36" s="49"/>
       <c r="AM36" s="50"/>
       <c r="AN36" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO36" s="49"/>
       <c r="AP36" s="50"/>
       <c r="AQ36" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR36" s="49"/>
       <c r="AS36" s="50"/>
       <c r="AT36" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU36" s="49"/>
       <c r="AV36" s="50"/>
       <c r="AW36" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AX36" s="49"/>
       <c r="AY36" s="50"/>
       <c r="AZ36" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BA36" s="49"/>
       <c r="BB36" s="50"/>
       <c r="BC36" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD36" s="49"/>
       <c r="BE36" s="50"/>
@@ -4951,7 +4985,7 @@
     </row>
     <row r="39" spans="1:129" s="33" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
@@ -5084,17 +5118,17 @@
     </row>
     <row r="40" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
       <c r="D40" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="49"/>
       <c r="F40" s="50"/>
       <c r="G40" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" s="49"/>
       <c r="I40" s="50"/>
@@ -5102,52 +5136,52 @@
       <c r="K40" s="49"/>
       <c r="L40" s="50"/>
       <c r="M40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N40" s="49"/>
       <c r="O40" s="50"/>
       <c r="P40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q40" s="49"/>
       <c r="R40" s="50"/>
       <c r="S40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T40" s="49"/>
       <c r="U40" s="50"/>
       <c r="V40" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W40" s="49"/>
       <c r="X40" s="50"/>
       <c r="Y40" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z40" s="49"/>
       <c r="AA40" s="50"/>
       <c r="AB40" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC40" s="49"/>
       <c r="AD40" s="50"/>
       <c r="AE40" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF40" s="49"/>
       <c r="AG40" s="50"/>
       <c r="AH40" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AI40" s="49"/>
       <c r="AJ40" s="50"/>
       <c r="AK40" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL40" s="49"/>
       <c r="AM40" s="50"/>
       <c r="AN40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO40" s="49"/>
       <c r="AP40" s="50"/>
@@ -5155,17 +5189,17 @@
       <c r="AR40" s="49"/>
       <c r="AS40" s="50"/>
       <c r="AT40" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AU40" s="49"/>
       <c r="AV40" s="50"/>
       <c r="AW40" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AX40" s="49"/>
       <c r="AY40" s="50"/>
       <c r="AZ40" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BA40" s="49"/>
       <c r="BB40" s="50"/>
@@ -5173,47 +5207,47 @@
       <c r="BD40" s="49"/>
       <c r="BE40" s="50"/>
       <c r="BF40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BG40" s="49"/>
       <c r="BH40" s="50"/>
       <c r="BI40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BJ40" s="49"/>
       <c r="BK40" s="50"/>
       <c r="BL40" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BM40" s="49"/>
       <c r="BN40" s="50"/>
       <c r="BO40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP40" s="49"/>
       <c r="BQ40" s="50"/>
       <c r="BR40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BS40" s="49"/>
       <c r="BT40" s="50"/>
       <c r="BU40" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BV40" s="49"/>
       <c r="BW40" s="50"/>
       <c r="BX40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BY40" s="49"/>
       <c r="BZ40" s="50"/>
       <c r="CA40" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB40" s="49"/>
       <c r="CC40" s="50"/>
       <c r="CD40" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CE40" s="49"/>
       <c r="CF40" s="50"/>
@@ -5224,12 +5258,12 @@
       <c r="CK40" s="49"/>
       <c r="CL40" s="50"/>
       <c r="CM40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CN40" s="49"/>
       <c r="CO40" s="50"/>
       <c r="CP40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CQ40" s="49"/>
       <c r="CR40" s="50"/>
@@ -5237,47 +5271,47 @@
       <c r="CT40" s="49"/>
       <c r="CU40" s="50"/>
       <c r="CV40" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="CW40" s="49"/>
       <c r="CX40" s="50"/>
       <c r="CY40" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CZ40" s="49"/>
       <c r="DA40" s="50"/>
       <c r="DB40" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DC40" s="49"/>
       <c r="DD40" s="50"/>
       <c r="DE40" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF40" s="49"/>
       <c r="DG40" s="50"/>
       <c r="DH40" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="DI40" s="49"/>
       <c r="DJ40" s="50"/>
       <c r="DK40" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DL40" s="49"/>
       <c r="DM40" s="50"/>
       <c r="DN40" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DO40" s="49"/>
       <c r="DP40" s="50"/>
       <c r="DQ40" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="DR40" s="49"/>
       <c r="DS40" s="50"/>
       <c r="DT40" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DU40" s="49"/>
       <c r="DV40" s="50"/>
@@ -5287,7 +5321,7 @@
     </row>
     <row r="41" spans="1:129" s="31" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
@@ -5420,32 +5454,32 @@
     </row>
     <row r="42" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
       <c r="D42" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="50"/>
       <c r="G42" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42" s="49"/>
       <c r="I42" s="50"/>
       <c r="J42" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42" s="49"/>
       <c r="L42" s="50"/>
       <c r="M42" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N42" s="49"/>
       <c r="O42" s="50"/>
       <c r="P42" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q42" s="49"/>
       <c r="R42" s="50"/>
@@ -5563,62 +5597,62 @@
     </row>
     <row r="43" spans="1:129" s="12" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AN43" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
       <c r="D44" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
       <c r="G44" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="50"/>
       <c r="J44" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K44" s="49"/>
       <c r="L44" s="50"/>
       <c r="M44" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N44" s="49"/>
       <c r="O44" s="50"/>
       <c r="P44" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="49"/>
       <c r="R44" s="50"/>
       <c r="S44" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T44" s="49"/>
       <c r="U44" s="50"/>
       <c r="V44" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W44" s="49"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z44" s="49"/>
       <c r="AA44" s="50"/>
       <c r="AB44" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC44" s="49"/>
       <c r="AD44" s="50"/>
       <c r="AE44" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF44" s="49"/>
       <c r="AG44" s="50"/>
@@ -5626,32 +5660,32 @@
       <c r="AI44" s="49"/>
       <c r="AJ44" s="50"/>
       <c r="AK44" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL44" s="49"/>
       <c r="AM44" s="50"/>
       <c r="AN44" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO44" s="49"/>
       <c r="AP44" s="50"/>
       <c r="AQ44" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR44" s="49"/>
       <c r="AS44" s="50"/>
       <c r="AT44" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AU44" s="49"/>
       <c r="AV44" s="50"/>
       <c r="AW44" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX44" s="49"/>
       <c r="AY44" s="50"/>
       <c r="AZ44" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA44" s="49"/>
       <c r="BB44" s="50"/>
@@ -5733,22 +5767,22 @@
     </row>
     <row r="45" spans="1:129" s="9" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AQ45" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
       <c r="D46" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="50"/>
       <c r="G46" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="49"/>
       <c r="I46" s="50"/>
@@ -5756,12 +5790,12 @@
       <c r="K46" s="49"/>
       <c r="L46" s="50"/>
       <c r="M46" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N46" s="49"/>
       <c r="O46" s="50"/>
       <c r="P46" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q46" s="49"/>
       <c r="R46" s="50"/>
@@ -5769,42 +5803,42 @@
       <c r="T46" s="49"/>
       <c r="U46" s="50"/>
       <c r="V46" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W46" s="49"/>
       <c r="X46" s="50"/>
       <c r="Y46" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z46" s="49"/>
       <c r="AA46" s="50"/>
       <c r="AB46" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC46" s="49"/>
       <c r="AD46" s="50"/>
       <c r="AE46" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF46" s="49"/>
       <c r="AG46" s="50"/>
       <c r="AH46" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI46" s="49"/>
       <c r="AJ46" s="50"/>
       <c r="AK46" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL46" s="49"/>
       <c r="AM46" s="50"/>
       <c r="AN46" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AO46" s="49"/>
       <c r="AP46" s="50"/>
       <c r="AQ46" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AR46" s="49"/>
       <c r="AS46" s="50"/>
@@ -5812,12 +5846,12 @@
       <c r="AU46" s="49"/>
       <c r="AV46" s="50"/>
       <c r="AW46" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX46" s="49"/>
       <c r="AY46" s="50"/>
       <c r="AZ46" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BA46" s="49"/>
       <c r="BB46" s="50"/>
@@ -5899,10 +5933,10 @@
     </row>
     <row r="47" spans="1:129" s="12" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AU47" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BM47" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:129" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6038,7 +6072,7 @@
     </row>
     <row r="49" spans="1:129" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
@@ -6171,7 +6205,7 @@
     </row>
     <row r="50" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -6206,57 +6240,57 @@
       <c r="AF50" s="47"/>
       <c r="AG50" s="47"/>
       <c r="AH50" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AI50" s="49"/>
       <c r="AJ50" s="50"/>
       <c r="AK50" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL50" s="49"/>
       <c r="AM50" s="50"/>
       <c r="AN50" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO50" s="49"/>
       <c r="AP50" s="50"/>
       <c r="AQ50" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR50" s="49"/>
       <c r="AS50" s="50"/>
       <c r="AT50" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU50" s="49"/>
       <c r="AV50" s="50"/>
       <c r="AW50" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX50" s="49"/>
       <c r="AY50" s="50"/>
       <c r="AZ50" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BA50" s="49"/>
       <c r="BB50" s="50"/>
       <c r="BC50" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD50" s="49"/>
       <c r="BE50" s="50"/>
       <c r="BF50" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG50" s="49"/>
       <c r="BH50" s="50"/>
       <c r="BI50" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BJ50" s="49"/>
       <c r="BK50" s="50"/>
       <c r="BL50" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BM50" s="49"/>
       <c r="BN50" s="50"/>
@@ -6457,7 +6491,7 @@
     </row>
     <row r="52" spans="1:129" s="30" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
@@ -6590,7 +6624,7 @@
     </row>
     <row r="53" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -6854,7 +6888,7 @@
     </row>
     <row r="55" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -7098,7 +7132,7 @@
     </row>
     <row r="57" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -7362,7 +7396,7 @@
     </row>
     <row r="59" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -7495,7 +7529,7 @@
     </row>
     <row r="60" spans="1:129" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="53"/>
       <c r="C60" s="53"/>
@@ -7783,7 +7817,7 @@
       <c r="W62" s="53"/>
       <c r="X62" s="53"/>
       <c r="Y62" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z62" s="58"/>
       <c r="AA62" s="58"/>
@@ -8154,7 +8188,7 @@
     </row>
     <row r="65" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -8205,7 +8239,7 @@
       <c r="BA65" s="49"/>
       <c r="BB65" s="50"/>
       <c r="BC65" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BD65" s="73"/>
       <c r="BE65" s="73"/>
@@ -8219,7 +8253,7 @@
       <c r="BM65" s="49"/>
       <c r="BN65" s="50"/>
       <c r="BO65" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BS65" s="10"/>
       <c r="BT65" s="10"/>
@@ -8227,7 +8261,7 @@
       <c r="BV65" s="49"/>
       <c r="BW65" s="50"/>
       <c r="BX65" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CB65" s="10"/>
       <c r="CD65" s="10"/>
@@ -8267,7 +8301,7 @@
     </row>
     <row r="66" spans="1:129" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U66" s="80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V66" s="80"/>
       <c r="W66" s="80"/>
@@ -8278,7 +8312,7 @@
       <c r="AB66" s="80"/>
       <c r="AC66" s="35"/>
       <c r="AG66" s="80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH66" s="80"/>
       <c r="AI66" s="80"/>
@@ -8288,7 +8322,7 @@
       <c r="AM66" s="80"/>
       <c r="AN66" s="80"/>
       <c r="AQ66" s="59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR66" s="59"/>
       <c r="AS66" s="59"/>
@@ -9096,8 +9130,8 @@
   </sheetPr>
   <dimension ref="A1:DY67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="CV20" sqref="CV20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="BF5" sqref="BF5:BH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9107,7 +9141,7 @@
   <sheetData>
     <row r="1" spans="1:129" s="21" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -9267,7 +9301,7 @@
     </row>
     <row r="3" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -9305,37 +9339,37 @@
       <c r="AI3" s="77"/>
       <c r="AJ3" s="88"/>
       <c r="AK3" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL3" s="49"/>
       <c r="AM3" s="50"/>
       <c r="AN3" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO3" s="49"/>
       <c r="AP3" s="50"/>
       <c r="AQ3" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AR3" s="49"/>
       <c r="AS3" s="50"/>
       <c r="AT3" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU3" s="49"/>
       <c r="AV3" s="50"/>
       <c r="AW3" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX3" s="49"/>
       <c r="AY3" s="50"/>
       <c r="AZ3" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BA3" s="49"/>
       <c r="BB3" s="50"/>
       <c r="BC3" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD3" s="49"/>
       <c r="BE3" s="50"/>
@@ -9414,7 +9448,7 @@
     </row>
     <row r="4" spans="1:129" s="36" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK4" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AL4" s="83"/>
       <c r="AM4" s="83"/>
@@ -9511,7 +9545,7 @@
     </row>
     <row r="5" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -9549,7 +9583,7 @@
       <c r="AI5" s="49"/>
       <c r="AJ5" s="50"/>
       <c r="AK5" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL5" s="73"/>
       <c r="AM5" s="73"/>
@@ -9593,7 +9627,7 @@
       <c r="BY5" s="49"/>
       <c r="BZ5" s="50"/>
       <c r="CA5" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CB5" s="73"/>
       <c r="CC5" s="73"/>
@@ -9639,7 +9673,7 @@
     </row>
     <row r="6" spans="1:129" s="36" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CO6" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CP6" s="85"/>
       <c r="CQ6" s="85"/>
@@ -9649,7 +9683,7 @@
       <c r="CU6" s="85"/>
       <c r="CV6" s="85"/>
       <c r="DA6" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DB6" s="85"/>
       <c r="DC6" s="85"/>
@@ -9659,7 +9693,7 @@
       <c r="DG6" s="85"/>
       <c r="DH6" s="85"/>
       <c r="DN6" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DO6" s="83"/>
       <c r="DP6" s="83"/>
@@ -9675,7 +9709,7 @@
     </row>
     <row r="7" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -9809,7 +9843,7 @@
     <row r="8" spans="1:129" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="77"/>
       <c r="C9" s="77"/>
@@ -9889,7 +9923,7 @@
       <c r="BY9" s="49"/>
       <c r="BZ9" s="50"/>
       <c r="CA9" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CB9" s="73"/>
       <c r="CC9" s="73"/>
@@ -10027,7 +10061,7 @@
       <c r="CM10" s="36"/>
       <c r="CN10" s="36"/>
       <c r="CO10" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CP10" s="85"/>
       <c r="CQ10" s="85"/>
@@ -10041,7 +10075,7 @@
       <c r="CY10" s="36"/>
       <c r="CZ10" s="36"/>
       <c r="DA10" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DB10" s="85"/>
       <c r="DC10" s="85"/>
@@ -10056,7 +10090,7 @@
       <c r="DL10" s="36"/>
       <c r="DM10" s="36"/>
       <c r="DN10" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DO10" s="83"/>
       <c r="DP10" s="83"/>
@@ -10072,7 +10106,7 @@
     </row>
     <row r="11" spans="1:129" s="18" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
@@ -10649,7 +10683,7 @@
     </row>
     <row r="17" spans="1:129" s="18" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
@@ -10860,7 +10894,7 @@
       <c r="AT19" s="104"/>
       <c r="AU19" s="104"/>
       <c r="AV19" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" s="85"/>
       <c r="AX19" s="85"/>
@@ -10874,7 +10908,7 @@
       <c r="BF19" s="10"/>
       <c r="BG19" s="10"/>
       <c r="BH19" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BI19" s="85"/>
       <c r="BJ19" s="85"/>
@@ -10885,7 +10919,7 @@
       <c r="BO19" s="85"/>
       <c r="BP19" s="36"/>
       <c r="BU19" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BV19" s="83"/>
       <c r="BW19" s="83"/>
@@ -10986,7 +11020,7 @@
     </row>
     <row r="21" spans="1:129" s="30" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
@@ -11119,7 +11153,7 @@
     </row>
     <row r="22" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -11253,7 +11287,7 @@
     <row r="23" spans="1:129" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -11306,7 +11340,7 @@
       <c r="AX24" s="49"/>
       <c r="AY24" s="50"/>
       <c r="AZ24" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA24" s="73"/>
       <c r="BB24" s="73"/>
@@ -11383,7 +11417,7 @@
     <row r="25" spans="1:129" s="10" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -11505,7 +11539,7 @@
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
@@ -11515,7 +11549,7 @@
       <c r="U27" s="85"/>
       <c r="V27" s="85"/>
       <c r="AA27" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB27" s="85"/>
       <c r="AC27" s="85"/>
@@ -11525,7 +11559,7 @@
       <c r="AG27" s="85"/>
       <c r="AH27" s="85"/>
       <c r="AN27" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO27" s="83"/>
       <c r="AP27" s="83"/>
@@ -11607,7 +11641,7 @@
     </row>
     <row r="28" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -11759,7 +11793,7 @@
     </row>
     <row r="30" spans="1:129" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -11776,7 +11810,7 @@
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
       <c r="P30" s="73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="73"/>
       <c r="R30" s="100"/>
@@ -11815,7 +11849,7 @@
       <c r="BA30" s="49"/>
       <c r="BB30" s="50"/>
       <c r="BC30" s="72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD30" s="73"/>
       <c r="BE30" s="73"/>
@@ -11875,7 +11909,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
@@ -11885,7 +11919,7 @@
       <c r="X31" s="85"/>
       <c r="Y31" s="85"/>
       <c r="AD31" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE31" s="85"/>
       <c r="AF31" s="85"/>
@@ -11896,7 +11930,7 @@
       <c r="AK31" s="85"/>
       <c r="AN31" s="36"/>
       <c r="AQ31" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR31" s="83"/>
       <c r="AS31" s="83"/>
@@ -11918,7 +11952,7 @@
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
       <c r="BK31" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BL31" s="85"/>
       <c r="BM31" s="85"/>
@@ -11931,7 +11965,7 @@
       <c r="BT31" s="10"/>
       <c r="BU31" s="10"/>
       <c r="BW31" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BX31" s="85"/>
       <c r="BY31" s="85"/>
@@ -11941,7 +11975,7 @@
       <c r="CC31" s="85"/>
       <c r="CD31" s="85"/>
       <c r="CJ31" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="CK31" s="83"/>
       <c r="CL31" s="83"/>
@@ -11957,7 +11991,7 @@
     </row>
     <row r="32" spans="1:129" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
@@ -12221,7 +12255,7 @@
     </row>
     <row r="34" spans="1:129" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="58"/>
       <c r="C34" s="58"/>
@@ -12485,7 +12519,7 @@
     </row>
     <row r="36" spans="1:129" s="21" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="83"/>
       <c r="C36" s="83"/>
@@ -13014,7 +13048,7 @@
     <row r="42" spans="1:129" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:129" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DY43" s="41"/>
     </row>
@@ -13151,7 +13185,7 @@
     </row>
     <row r="45" spans="1:129" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
@@ -13284,7 +13318,7 @@
     </row>
     <row r="46" spans="1:129" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="77"/>
       <c r="C46" s="77"/>
@@ -13361,7 +13395,7 @@
       <c r="BV46" s="77"/>
       <c r="BW46" s="77"/>
       <c r="BX46" s="68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BY46" s="68"/>
       <c r="BZ46" s="68"/>
@@ -13380,12 +13414,12 @@
       <c r="CM46" s="68"/>
       <c r="CN46" s="68"/>
       <c r="CP46" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CQ46" s="101"/>
       <c r="CR46" s="71"/>
       <c r="CS46" s="73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT46" s="73"/>
       <c r="CU46" s="73"/>
@@ -13393,25 +13427,25 @@
       <c r="CW46" s="73"/>
       <c r="CX46" s="100"/>
       <c r="CY46" s="70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CZ46" s="101"/>
       <c r="DA46" s="71"/>
       <c r="DC46" s="77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DD46" s="77"/>
     </row>
     <row r="47" spans="1:129" s="10" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:129" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
       <c r="D48" s="26"/>
       <c r="E48" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -13442,7 +13476,7 @@
       <c r="AG48" s="50"/>
       <c r="AH48" s="28"/>
       <c r="AI48" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ48" s="28"/>
       <c r="AK48" s="28"/>
@@ -13541,7 +13575,7 @@
     </row>
     <row r="49" spans="1:129" s="14" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -13894,7 +13928,7 @@
       <c r="CM51" s="36"/>
       <c r="CN51" s="36"/>
       <c r="CO51" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CP51" s="85"/>
       <c r="CQ51" s="85"/>
@@ -13908,7 +13942,7 @@
       <c r="CY51" s="36"/>
       <c r="CZ51" s="36"/>
       <c r="DA51" s="85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="DB51" s="85"/>
       <c r="DC51" s="85"/>
@@ -13923,7 +13957,7 @@
       <c r="DL51" s="36"/>
       <c r="DM51" s="36"/>
       <c r="DN51" s="83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="DO51" s="83"/>
       <c r="DP51" s="83"/>
@@ -13939,7 +13973,7 @@
     </row>
     <row r="52" spans="1:129" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -14093,57 +14127,57 @@
       <c r="BA53" s="53"/>
       <c r="BB53" s="53"/>
       <c r="BC53" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD53" s="49"/>
       <c r="BE53" s="50"/>
       <c r="BF53" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BG53" s="49"/>
       <c r="BH53" s="50"/>
       <c r="BI53" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ53" s="49"/>
       <c r="BK53" s="50"/>
       <c r="BL53" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BM53" s="49"/>
       <c r="BN53" s="50"/>
       <c r="BO53" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP53" s="49"/>
       <c r="BQ53" s="50"/>
       <c r="BR53" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BS53" s="49"/>
       <c r="BT53" s="50"/>
       <c r="BU53" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BV53" s="49"/>
       <c r="BW53" s="50"/>
       <c r="BX53" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BY53" s="49"/>
       <c r="BZ53" s="50"/>
       <c r="CA53" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CB53" s="49"/>
       <c r="CC53" s="50"/>
       <c r="CD53" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CE53" s="49"/>
       <c r="CF53" s="50"/>
       <c r="CG53" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CH53" s="49"/>
       <c r="CI53" s="50"/>
@@ -14151,32 +14185,32 @@
       <c r="CK53" s="49"/>
       <c r="CL53" s="50"/>
       <c r="CM53" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CN53" s="49"/>
       <c r="CO53" s="50"/>
       <c r="CP53" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CQ53" s="49"/>
       <c r="CR53" s="50"/>
       <c r="CS53" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CT53" s="49"/>
       <c r="CU53" s="50"/>
       <c r="CV53" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CW53" s="49"/>
       <c r="CX53" s="50"/>
       <c r="CY53" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CZ53" s="49"/>
       <c r="DA53" s="50"/>
       <c r="DB53" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="DC53" s="49"/>
       <c r="DD53" s="50"/>
@@ -14277,17 +14311,17 @@
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="50"/>
       <c r="G55" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" s="49"/>
       <c r="I55" s="50"/>
       <c r="J55" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="50"/>
@@ -14295,12 +14329,12 @@
       <c r="N55" s="49"/>
       <c r="O55" s="50"/>
       <c r="P55" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q55" s="49"/>
       <c r="R55" s="50"/>
       <c r="S55" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T55" s="49"/>
       <c r="U55" s="50"/>
@@ -14308,42 +14342,42 @@
       <c r="W55" s="49"/>
       <c r="X55" s="50"/>
       <c r="Y55" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z55" s="49"/>
       <c r="AA55" s="50"/>
       <c r="AB55" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC55" s="49"/>
       <c r="AD55" s="50"/>
       <c r="AE55" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF55" s="49"/>
       <c r="AG55" s="50"/>
       <c r="AH55" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI55" s="49"/>
       <c r="AJ55" s="50"/>
       <c r="AK55" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL55" s="49"/>
       <c r="AM55" s="50"/>
       <c r="AN55" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AO55" s="49"/>
       <c r="AP55" s="50"/>
       <c r="AQ55" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AR55" s="49"/>
       <c r="AS55" s="50"/>
       <c r="AT55" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AU55" s="49"/>
       <c r="AV55" s="50"/>
@@ -14351,12 +14385,12 @@
       <c r="AX55" s="49"/>
       <c r="AY55" s="50"/>
       <c r="AZ55" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA55" s="49"/>
       <c r="BB55" s="50"/>
       <c r="BC55" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD55" s="49"/>
       <c r="BE55" s="50"/>
@@ -14435,7 +14469,7 @@
     </row>
     <row r="56" spans="1:129" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="98"/>
       <c r="C56" s="98"/>
@@ -14568,12 +14602,12 @@
     </row>
     <row r="57" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="99"/>
       <c r="C58" s="99"/>
@@ -14706,7 +14740,7 @@
     </row>
     <row r="59" spans="1:129" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="97"/>
       <c r="C59" s="97"/>
@@ -14839,20 +14873,20 @@
     </row>
     <row r="60" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="95" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="95"/>
       <c r="C60" s="93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="93"/>
       <c r="E60" s="93"/>
       <c r="F60" s="92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" s="92"/>
       <c r="H60" s="93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I60" s="93"/>
       <c r="J60" s="93"/>
@@ -14874,7 +14908,7 @@
       <c r="X60" s="95"/>
       <c r="Y60" s="95"/>
       <c r="Z60" s="96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA60" s="96"/>
       <c r="AB60" s="96"/>
@@ -14882,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="DA60" s="94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="DB60" s="94"/>
       <c r="DC60" s="94"/>
@@ -14911,7 +14945,7 @@
     </row>
     <row r="61" spans="1:129" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="92"/>
       <c r="C61" s="92"/>
@@ -14950,7 +14984,7 @@
       <c r="AJ61" s="92"/>
       <c r="AK61" s="92"/>
       <c r="AL61" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM61" s="93"/>
       <c r="AN61" s="93"/>
@@ -14965,23 +14999,23 @@
       <c r="AW61" s="93"/>
       <c r="AX61" s="93"/>
       <c r="AY61" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ61" s="95"/>
       <c r="BA61" s="95"/>
       <c r="BB61" s="95"/>
       <c r="BC61" s="95"/>
       <c r="BD61" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BE61" s="93"/>
       <c r="BF61" s="93"/>
       <c r="BG61" s="92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH61" s="92"/>
       <c r="BI61" s="93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BJ61" s="93"/>
       <c r="BK61" s="93"/>
@@ -15003,7 +15037,7 @@
       <c r="BY61" s="95"/>
       <c r="BZ61" s="95"/>
       <c r="CA61" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="CB61" s="96"/>
       <c r="CC61" s="96"/>
@@ -15013,12 +15047,12 @@
     </row>
     <row r="62" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A63" s="92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="92"/>
       <c r="C63" s="92"/>
@@ -15055,7 +15089,7 @@
       <c r="AH63" s="92"/>
       <c r="AI63" s="92"/>
       <c r="AJ63" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK63" s="90"/>
       <c r="AL63" s="90"/>
@@ -15127,7 +15161,7 @@
     </row>
     <row r="64" spans="1:129" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A64" s="92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" s="92"/>
       <c r="C64" s="92"/>
@@ -15136,7 +15170,7 @@
       <c r="F64" s="92"/>
       <c r="G64" s="92"/>
       <c r="H64" s="93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I64" s="93"/>
       <c r="J64" s="93"/>
@@ -15146,7 +15180,7 @@
       <c r="N64" s="93"/>
       <c r="O64" s="93"/>
       <c r="P64" s="94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q64" s="94"/>
       <c r="R64" s="94"/>
@@ -15156,7 +15190,7 @@
       <c r="V64" s="94"/>
       <c r="W64" s="94"/>
       <c r="X64" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y64" s="93"/>
       <c r="Z64" s="93"/>
@@ -15169,7 +15203,7 @@
       <c r="AG64" s="93"/>
       <c r="AH64" s="93"/>
       <c r="AI64" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ64" s="95"/>
       <c r="AK64" s="95"/>
@@ -15180,16 +15214,16 @@
       <c r="AP64" s="95"/>
       <c r="AQ64" s="95"/>
       <c r="AR64" s="93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS64" s="93"/>
       <c r="AT64" s="93"/>
       <c r="AU64" s="92" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV64" s="92"/>
       <c r="AW64" s="93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX64" s="93"/>
       <c r="AY64" s="93"/>
@@ -15211,7 +15245,7 @@
       <c r="BM64" s="95"/>
       <c r="BN64" s="95"/>
       <c r="BO64" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BP64" s="96"/>
       <c r="BQ64" s="96"/>
@@ -15221,10 +15255,10 @@
     </row>
     <row r="65" spans="1:103" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L65" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M65" s="90"/>
       <c r="N65" s="90"/>
@@ -15345,7 +15379,7 @@
       <c r="AS66" s="91"/>
       <c r="AT66" s="91"/>
       <c r="AV66" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:103" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
